--- a/data/s_vals/2021/norwood_james.xlsx
+++ b/data/s_vals/2021/norwood_james.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6505419486142843</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C2" t="n">
-        <v>3.483028374046393</v>
+        <v>9.983522426115931</v>
       </c>
       <c r="D2" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8987522246590758</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>6.045650219810151</v>
+        <v>27.18773750947629</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6505419486142843</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5425467439997194</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D3" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.569619652424723</v>
+        <v>4.178645819794754</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.510684949326435</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C4" t="n">
-        <v>1.356171014740854</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D4" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>4.243386923878008</v>
+        <v>6.038307959104277</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9914252674566921</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5425467439997194</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D5" t="n">
-        <v>1.013327672490398</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.91050297126713</v>
+        <v>4.349763226824225</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9914252674566921</v>
+        <v>0.2881169905109251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5425467439997194</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4881788651905263</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3632032873203213</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.385354163967259</v>
+        <v>1.84748871573303</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2021/norwood_james.xlsx
+++ b/data/s_vals/2021/norwood_james.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>27.18773750947629</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>4.178645819794754</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>6.038307959104277</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>4.349763226824225</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -588,6 +605,9 @@
       </c>
       <c r="G6" t="n">
         <v>1.84748871573303</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
